--- a/src/main/java/testData/LoginData.xlsx
+++ b/src/main/java/testData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18456" windowHeight="6672" tabRatio="730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="22152" windowHeight="8100" tabRatio="730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>mngr83460</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -797,10 +800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +817,7 @@
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -848,8 +851,11 @@
       <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
